--- a/resources/excel_tables/skill.xlsx
+++ b/resources/excel_tables/skill.xlsx
@@ -1,85 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>SkillID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>ManaCost</t>
-  </si>
-  <si>
-    <t>Cooldown</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>AreaRadius</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Effects</t>
-  </si>
-  <si>
-    <t>劈砍</t>
-  </si>
-  <si>
-    <t>基础的物理攻击</t>
-  </si>
-  <si>
-    <t>[{"type":1,"value":20}]</t>
-  </si>
-  <si>
-    <t>火球术</t>
-  </si>
-  <si>
-    <t>发射一个火球</t>
-  </si>
-  <si>
-    <t>[{"type":2,"value":30}]</t>
-  </si>
-  <si>
-    <t>治疗术</t>
-  </si>
-  <si>
-    <t>恢复生命值</t>
-  </si>
-  <si>
-    <t>[{"type":3,"value":50}]</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -90,7 +26,7 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -109,13 +45,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -376,153 +379,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>SkillID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ManaCost</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Cooldown</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Range</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>AreaRadius</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Effects</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>DamageType</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>EffectType</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>CooldownGrowth</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>DamageGrowth</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>RangeGrowth</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>RequiredLevel</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>AnimationID</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>SoundID</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>IconID</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>PreSkillID</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>BuffID</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>SkillCastTime</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>SkillProjectileSpeed</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>劈砍</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>20</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>基础的物理攻击</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[{"type":1,"value":20}]</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>火球术</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>30</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>5</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>发射一个火球</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[{"type":2,"value":30}]</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>治疗术</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>20</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>恢复生命值</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[{"type":3,"value":50}]</t>
+        </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>